--- a/src/bd/BOM/bom.xlsx
+++ b/src/bd/BOM/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.zubkov\PycharmProjects\FinalProject\src\bd\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4BA6E-2694-4189-8F91-2EB9C71EFFB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357B64B-EB63-4CDB-9F4C-382141026AD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="536">
   <si>
     <t>Блок</t>
   </si>
@@ -124,378 +124,252 @@
     <t>Оболочка ВП.262512</t>
   </si>
   <si>
-    <t>VZ-N12_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-012</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н12#для не бронированного#кабеля, диаметром 2-6мм</t>
   </si>
   <si>
-    <t>VZ-N16_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-016</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н16#для не бронированного#кабеля, диаметром 3-8мм</t>
   </si>
   <si>
-    <t>VZ-N20_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-020</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н20#для не бронированного#кабеля, диаметром 6-14мм</t>
   </si>
   <si>
-    <t>VZ-N25_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-025</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н25#для не бронированного#кабеля, диаметром 12-18мм</t>
   </si>
   <si>
-    <t>VZ-N32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-032</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н32#для не бронированного#кабеля, диаметром 18-25мм</t>
   </si>
   <si>
-    <t>VZ-N40_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-040</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н40#для не бронированного#кабеля, диаметром 25-31мм</t>
   </si>
   <si>
-    <t>VZ-N50_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-050</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н50#для не бронированного#кабеля, диаметром 31-39мм</t>
   </si>
   <si>
-    <t>VZ-N63_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-063</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н63#для не бронированного#кабеля, диаметром 39-47мм</t>
   </si>
   <si>
-    <t>VZ-N75_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-075</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н75#для не бронированного#кабеля, диаметром 47-55мм</t>
   </si>
   <si>
-    <t>VZ-N90_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.001-090</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н90#для не бронированного#кабеля, диаметром 63-71мм</t>
   </si>
   <si>
-    <t>VZ-B16_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-016</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б16#для бронированного кабеля,#наружным диаметром 8-12мм,#внутренним диаметром 3-8мм</t>
   </si>
   <si>
-    <t>VZ-B20_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-020</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б20#для бронированного кабеля,#наружным диаметром 9-17мм,#внутренним диаметром 6-14мм</t>
   </si>
   <si>
-    <t>VZ-B25_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-025</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б25#для бронированного кабеля,#наружным диаметром 15-25мм,#внутренним диаметром 12-18мм</t>
   </si>
   <si>
-    <t>VZ-B32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-032</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б32#для бронированного кабеля,#наружным диаметром 21-31мм,#внутренним диаметром 18-25мм</t>
   </si>
   <si>
-    <t>VZ-B40_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-040</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б40#для бронированного кабеля,#наружным диаметром 27-37мм,#внутренним диаметром 25-31мм</t>
   </si>
   <si>
-    <t>VZ-B50_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-050</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б50#для бронированного кабеля,#наружным диаметром 36-46мм,#внутренним диаметром 31-39мм</t>
   </si>
   <si>
-    <t>VZ-B63_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-063</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б63#для бронированного кабеля,#наружным диаметром 45-55мм,#внутренним диаметром 39-47мм</t>
   </si>
   <si>
-    <t>VZ-B75_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.002-075</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Б75#для бронированного кабеля,#наружным диаметром 55-65мм,#внутренним диаметром 47-55мм</t>
   </si>
   <si>
-    <t>VZ-MB20_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.003-020</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-МБ20#для бронированного кабеля,#наружным диаметром 9-17мм,#внутренним диаметром 6-14мм</t>
   </si>
   <si>
-    <t>VZ-MB25_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.003-025</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-МБ25#для бронированного кабеля,#наружным диаметром 15-25мм,#внутренним диаметром 12-18мм</t>
   </si>
   <si>
-    <t>VZ-MB32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.003-032</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-МБ32#для бронированного кабеля,#наружным диаметром 21-31мм,#внутренним диаметром 18-25мм</t>
   </si>
   <si>
-    <t>VZ-MB40_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.003-040</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-МБ40#для бронированного кабеля,#наружным диаметром 27-37мм,#внутренним диаметром 25-31мм</t>
   </si>
   <si>
-    <t>VZ-N16-MR12_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-01</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н16-МР12#для не бронированного кабеля,# диаметром 3-8мм,с креплением# металлорукова ДУ 12</t>
   </si>
   <si>
-    <t>VZ-N20-MR15_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-02</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н20-МР15#для не бронированного кабеля,# диаметром 6-14мм,с креплением# металлорукова ДУ 15</t>
   </si>
   <si>
-    <t>VZ-N20-MR16_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-04</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н20-МР16#для не бронированного кабеля,# диаметром 6-14мм,с креплением# металлорукова ДУ 16</t>
   </si>
   <si>
-    <t>VZ-N20-MR20_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-08</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н20-МР20#для не бронированного кабеля,# диаметром 6-14мм,с креплением# металлорукова ДУ 20</t>
   </si>
   <si>
-    <t>VZ-N20-MR22_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-10</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н20-МР22#для не бронированного кабеля,# диаметром 6-14мм,с креплением# металлорукова ДУ 22</t>
   </si>
   <si>
-    <t>VZ-N25-MR22_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-11</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н25-МР22#для не бронированного кабеля,# диаметром 12-18мм,с креплением# металлорукова ДУ 22</t>
   </si>
   <si>
-    <t>VZ-N20-MR25_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-12</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н20-МР25#для не бронированного кабеля,# диаметром 6-14мм,с креплением# металлорукова ДУ 25</t>
   </si>
   <si>
-    <t>VZ-N25-MR25_withoutcap</t>
-  </si>
-  <si>
     <t xml:space="preserve">ВРПТ.305311.004-13 </t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н25-МР25#для не бронированного кабеля,# диаметром 12-18мм,с креплением# металлорукова ДУ 25</t>
   </si>
   <si>
-    <t>VZ-N32-MR25_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-14</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н32-МР25#для не бронированного кабеля,# диаметром 18-25мм,с креплением# металлорукова ДУ 25</t>
   </si>
   <si>
-    <t>VZ-N25-MR32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-15</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н25-МР32#для не бронированного кабеля,# диаметром 12-18мм,с креплением# металлорукова ДУ 32</t>
   </si>
   <si>
-    <t>VZ-N32-MR32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-16</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н32-МР32#для не бронированного кабеля,# диаметром 18-25мм,с креплением# металлорукова ДУ 32</t>
   </si>
   <si>
-    <t>VZ-N40-MR32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-17</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н40-МР32#для не бронированного кабеля,# диаметром 25-31мм,с креплением# металлорукова ДУ 32</t>
   </si>
   <si>
-    <t>VZ-N32-MR38_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-18</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н32-МР38#для не бронированного кабеля,# диаметром 18-25мм,с креплением# металлорукова ДУ 38</t>
   </si>
   <si>
-    <t>VZ-N40-MR38_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.004-19</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-Н40-МР38#для не бронированного кабеля,# диаметром 25-31мм,с креплением# металлорукова ДУ 38</t>
   </si>
   <si>
-    <t>VZ-P20_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.007-020</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-П20#для плоского кабеля#(6,3х4)-(11,8х7) мм</t>
   </si>
   <si>
-    <t>VZ-P20A_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.007-021</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-П20А#для плоского кабеля#(8,1х5,8)-(14,6х6,2) мм</t>
   </si>
   <si>
-    <t>VZ-P20V_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.007-022</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-П20В#для плоского кабеля#(10,3х5,6)-(13,6х9) мм</t>
   </si>
   <si>
-    <t>VZ-P32_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.007-032</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-П32#от 1 до 3-х плоского кабеля#(8,3х3,7)-(10,5х6) мм</t>
   </si>
   <si>
-    <t>VZ-P32A_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.007-033</t>
   </si>
   <si>
     <t>Кабельный ввод ВЗ-П32А#от 1 до 3-х плоского кабеля#(10,4х3,8)-(12,9х7,1) мм</t>
   </si>
   <si>
-    <t>VZ-P32V_withoutcap</t>
-  </si>
-  <si>
     <t>ВРПТ.305311.007-034</t>
   </si>
   <si>
@@ -695,9 +569,6 @@
   </si>
   <si>
     <t>VP.150807_topside</t>
-  </si>
-  <si>
-    <t>ВРПТ.754312.003</t>
   </si>
   <si>
     <t>DIN-рейка NS15х5, L=135 мм</t>
@@ -2064,7 +1935,133 @@
     <t>Провод медный, S=25 mm2, синий</t>
   </si>
   <si>
-    <t>ground_withoutcap</t>
+    <t>VZ-N12_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N16_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N20_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N25_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N40_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N50_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N63_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N75_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N90_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B16_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B20_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B25_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B40_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B50_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B63_withcap</t>
+  </si>
+  <si>
+    <t>VZ-B75_withcap</t>
+  </si>
+  <si>
+    <t>VZ-MB20_withcap</t>
+  </si>
+  <si>
+    <t>VZ-MB25_withcap</t>
+  </si>
+  <si>
+    <t>VZ-MB32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-MB40_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N16-MR12_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N20-MR15_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N20-MR16_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N20-MR20_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N20-MR22_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N25-MR22_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N20-MR25_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N25-MR25_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N32-MR25_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N25-MR32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N32-MR32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N40-MR32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N32-MR38_withcap</t>
+  </si>
+  <si>
+    <t>VZ-N40-MR38_withcap</t>
+  </si>
+  <si>
+    <t>ground_withcap</t>
+  </si>
+  <si>
+    <t>VZ-P20_withcap</t>
+  </si>
+  <si>
+    <t>VZ-P20A_withcap</t>
+  </si>
+  <si>
+    <t>VZ-P20V_withcap</t>
+  </si>
+  <si>
+    <t>VZ-P32_withcap</t>
+  </si>
+  <si>
+    <t>VZ-P32A_withcap</t>
+  </si>
+  <si>
+    <t>VZ-P32V_withcap</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2183,7 +2180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2480,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2489,7 @@
     <col min="3" max="3" width="116.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2507,23 +2503,23 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>228</v>
+        <v>161</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2539,9 +2535,12 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="14">
+        <v>159</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
         <v>3368.67</v>
       </c>
     </row>
@@ -2559,10 +2558,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>7857.28</v>
       </c>
     </row>
@@ -2580,7 +2582,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,9 +2602,12 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="13">
+        <v>159</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
         <v>7834.84</v>
       </c>
     </row>
@@ -2617,9 +2625,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="13">
+        <v>159</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
         <v>1485.06</v>
       </c>
     </row>
@@ -2637,9 +2648,12 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="13">
+        <v>159</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
         <v>1823.4</v>
       </c>
     </row>
@@ -2657,9 +2671,12 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H9" s="13">
+        <v>159</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
         <v>1954.54</v>
       </c>
     </row>
@@ -2677,9 +2694,12 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="13">
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
         <v>2029.54</v>
       </c>
     </row>
@@ -2697,7 +2717,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2714,1094 +2737,1140 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="13">
+        <v>159</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
         <v>7154.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="13">
+        <v>159</v>
+      </c>
+      <c r="H13" s="12">
         <v>607.79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="13">
+        <v>159</v>
+      </c>
+      <c r="H14" s="12">
         <v>615.75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>495</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="13">
+        <v>159</v>
+      </c>
+      <c r="H15" s="12">
         <v>619.58000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>496</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="13">
+        <v>159</v>
+      </c>
+      <c r="H16" s="12">
         <v>884.21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>497</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="13">
+        <v>159</v>
+      </c>
+      <c r="H17" s="12">
         <v>1188.3800000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>498</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H18" s="13">
+        <v>159</v>
+      </c>
+      <c r="H18" s="12">
         <v>1680.86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="13">
+        <v>159</v>
+      </c>
+      <c r="H19" s="12">
         <v>1933.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="13">
+        <v>159</v>
+      </c>
+      <c r="H20" s="12">
         <v>2385.3200000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="13">
+        <v>159</v>
+      </c>
+      <c r="H21" s="12">
         <v>1097.43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="13">
+        <v>159</v>
+      </c>
+      <c r="H22" s="12">
         <v>1323.49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>503</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="13">
+        <v>159</v>
+      </c>
+      <c r="H23" s="12">
         <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>504</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="13">
+        <v>159</v>
+      </c>
+      <c r="H24" s="12">
         <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>505</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="13">
+        <v>159</v>
+      </c>
+      <c r="H25" s="12">
         <v>1114.22</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>506</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="13">
+        <v>159</v>
+      </c>
+      <c r="H26" s="12">
         <v>1502.44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="13">
+        <v>159</v>
+      </c>
+      <c r="H27" s="12">
         <v>2090.85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H28" s="13">
+        <v>159</v>
+      </c>
+      <c r="H28" s="12">
         <v>2614.04</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="13">
+        <v>159</v>
+      </c>
+      <c r="H29" s="12">
         <v>3278.33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H30" s="13">
+        <v>159</v>
+      </c>
+      <c r="H30" s="12">
         <v>2050.9699999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>511</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="13">
+        <v>159</v>
+      </c>
+      <c r="H31" s="12">
         <v>809.71</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>512</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="13">
+        <v>159</v>
+      </c>
+      <c r="H32" s="12">
         <v>1114.22</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>513</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" s="13">
+        <v>159</v>
+      </c>
+      <c r="H33" s="12">
         <v>1502.44</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>514</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="13">
+        <v>159</v>
+      </c>
+      <c r="H34" s="12">
         <v>2090.85</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>515</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" s="13">
+        <v>159</v>
+      </c>
+      <c r="H35" s="12">
         <v>457.91</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>516</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="13">
+        <v>159</v>
+      </c>
+      <c r="H36" s="12">
         <v>572.91</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>517</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="13">
+        <v>159</v>
+      </c>
+      <c r="H37" s="12">
         <v>756.6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>518</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="13">
+        <v>159</v>
+      </c>
+      <c r="H38" s="12">
         <v>784.41</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>519</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="13">
+        <v>159</v>
+      </c>
+      <c r="H39" s="12">
         <v>805.83</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>520</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="13">
+        <v>159</v>
+      </c>
+      <c r="H40" s="12">
         <v>1009.27</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>521</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H41" s="13">
+        <v>159</v>
+      </c>
+      <c r="H41" s="12">
         <v>786.32</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>522</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H42" s="13">
+        <v>159</v>
+      </c>
+      <c r="H42" s="12">
         <v>907.54</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>523</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" s="13">
+        <v>159</v>
+      </c>
+      <c r="H43" s="12">
         <v>1353.21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>524</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="13">
+        <v>159</v>
+      </c>
+      <c r="H44" s="12">
         <v>1071.22</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>525</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="13">
+        <v>159</v>
+      </c>
+      <c r="H45" s="12">
         <v>1416.76</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="13">
+        <v>159</v>
+      </c>
+      <c r="H46" s="12">
         <v>1970.39</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>527</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H47" s="13">
+        <v>159</v>
+      </c>
+      <c r="H47" s="12">
         <v>1424</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>528</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="13">
+        <v>159</v>
+      </c>
+      <c r="H48" s="12">
         <v>1943.26</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H49" s="13">
+        <v>159</v>
+      </c>
+      <c r="H49" s="12">
         <v>655.29999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>531</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H50" s="13">
+        <v>159</v>
+      </c>
+      <c r="H50" s="12">
         <v>655.29999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>532</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51" s="13">
+        <v>159</v>
+      </c>
+      <c r="H51" s="12">
         <v>655.29999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>533</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H52" s="13">
+        <v>159</v>
+      </c>
+      <c r="H52" s="12">
         <v>1193.92</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>534</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H53" s="13">
+        <v>159</v>
+      </c>
+      <c r="H53" s="12">
         <v>1195.3800000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>535</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" s="13">
+        <v>159</v>
+      </c>
+      <c r="H54" s="12">
         <v>1195.3800000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>201</v>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>185</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="3"/>
-      <c r="H68" s="13"/>
+        <v>159</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="3"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3809,13 +3878,16 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,27 +3895,33 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3851,13 +3929,16 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3865,27 +3946,33 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3893,13 +3980,16 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3907,251 +3997,305 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>201</v>
+        <v>159</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4159,2658 +4303,2688 @@
         <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" t="s">
-        <v>193</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="3"/>
-      <c r="H99" s="13"/>
+        <v>159</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="3"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D101" s="3"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
+      <c r="A101" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>207</v>
+        <v>169</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>211</v>
+        <v>179</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104" s="12">
+        <v>12249.18</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>213</v>
+        <v>180</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H105" s="13">
-        <v>12249.18</v>
-      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H106" s="12">
+        <v>25095.06</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H107" s="13">
-        <v>25095.06</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="13">
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107" s="12">
         <v>1608.87</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>162</v>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C113" t="s">
-        <v>227</v>
+        <v>170</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="C117" t="s">
+        <v>152</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="C118" t="s">
+        <v>153</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C121" t="s">
-        <v>196</v>
+        <v>148</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="D120" s="3"/>
+      <c r="F120" s="4"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="D122" s="3"/>
-      <c r="H122" s="13"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="A123" s="6"/>
+      <c r="D123" s="3"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="D124" s="3"/>
-      <c r="H124" s="13"/>
-    </row>
-    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="D125" s="3"/>
-      <c r="H125" s="13"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>525</v>
+      <c r="B126" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>483</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>526</v>
+      <c r="B127" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>484</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="10"/>
+      <c r="C133" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="10"/>
+      <c r="C134" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="C135" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="10"/>
+      <c r="C136" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="10"/>
+      <c r="C137" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="10"/>
+      <c r="C138" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="B140" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="B141" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+      <c r="B142" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
+      <c r="B143" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+      <c r="B144" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
+      <c r="B145" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
+      <c r="B146" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+      <c r="B147" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+      <c r="B149" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
+      <c r="B150" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H150" s="12">
+        <v>366.68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
+      <c r="B151" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H151" s="12">
+        <v>343.11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+      <c r="B152" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="12">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
+      <c r="B153" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H153" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H154" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H155" s="12">
+        <v>82.65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+      <c r="B156" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H156" s="12">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="B157" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H157" s="12">
+        <v>94.83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H158" s="12">
+        <v>102.66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+      <c r="B159" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H159" s="12">
+        <v>108.96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H160" s="12">
+        <v>216.13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C161" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="9" t="s">
+      <c r="D161" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H161" s="12">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="9" t="s">
+      <c r="C162" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="D162" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H162" s="12">
+        <v>1476.39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
+      <c r="C163" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="D163" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H163" s="12">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="11"/>
-      <c r="C135" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="11"/>
-      <c r="C136" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="11"/>
-      <c r="C137" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="11"/>
-      <c r="C138" s="9" t="s">
+      <c r="C164" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H164" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H165" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H166" s="12">
+        <v>82.65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H167" s="12">
+        <v>90.48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H168" s="12">
+        <v>140.07</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H169" s="12">
+        <v>161.82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H170" s="12">
+        <v>184.44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H171" s="12">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+      <c r="B172" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H172" s="12">
+        <v>985.71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H173" s="12">
+        <v>1297.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+      <c r="B174" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H174" s="12">
+        <v>1758.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+      <c r="B175" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H175" s="12">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
+      <c r="B176" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H176" s="12">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H177" s="12">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H178" s="12">
+        <v>37.409999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H179" s="12">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H180" s="12">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H181" s="12">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H182" s="12">
+        <v>58.29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+      <c r="B183" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H183" s="12">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+      <c r="B184" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H184" s="12">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+      <c r="B185" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H185" s="12">
+        <v>154.86000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+      <c r="B186" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H186" s="12">
+        <v>169.65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H187" s="12">
+        <v>649.89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H188" s="12">
+        <v>649.89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+      <c r="B189" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H189" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
+      <c r="B190" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H190" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+      <c r="B191" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H191" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+      <c r="B192" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H192" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+      <c r="B193" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H193" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+      <c r="B194" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H194" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+      <c r="B195" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H195" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+      <c r="B196" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H196" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
+      <c r="B197" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H197" s="12">
+        <v>30.45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
+      <c r="B198" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H198" s="12">
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
+      <c r="B199" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H199" s="12">
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+      <c r="B200" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H200" s="12">
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
+      <c r="B201" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H201" s="12">
+        <v>75.69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
+      <c r="B202" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H202" s="12">
+        <v>74.819999999999993</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
+      <c r="B203" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H203" s="12">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
+      <c r="B204" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H204" s="12">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
+      <c r="B205" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
+      <c r="B206" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+      <c r="B207" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+      <c r="B208" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+      <c r="B209" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+      <c r="B211" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H211" s="12">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+      <c r="B212" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H212" s="12">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+      <c r="B213" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H213" s="12">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+      <c r="B214" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H214" s="12">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+      <c r="B215" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H215" s="12">
+        <v>56.92</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+      <c r="B216" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H216" s="12">
+        <v>221.04</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+      <c r="B217" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H217" s="12">
+        <v>186.82</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+      <c r="B218" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H218" s="12">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+      <c r="B219" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H219" s="12">
+        <v>432.94</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+      <c r="B220" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H220" s="12">
+        <v>493.81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+      <c r="B221" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H221" s="12">
+        <v>998.09</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+      <c r="B222" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H222" s="12">
+        <v>100.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+      <c r="B223" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H223" s="12">
+        <v>175.63</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
+      <c r="B224" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H224" s="12">
+        <v>267.56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
+      <c r="B225" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H225" s="12">
+        <v>349.18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
+      <c r="B226" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H226" s="12">
+        <v>464.92</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
+      <c r="B227" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H227" s="12">
+        <v>661.52</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+      <c r="B228" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
+      <c r="B229" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="7"/>
+      <c r="B230" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
+      <c r="B231" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
+      <c r="B232" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
+      <c r="B233" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
+      <c r="B234" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
+      <c r="B235" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
+      <c r="B236" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
+      <c r="B237" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
+      <c r="B238" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
+      <c r="B239" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+      <c r="B240" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
+      <c r="B241" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
+      <c r="B242" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
+      <c r="B243" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
+      <c r="B244" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H244" s="12">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
+      <c r="B245" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H245" s="12">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
+      <c r="B246" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H246" s="12">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
+      <c r="B247" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H247" s="12">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
+      <c r="B248" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H248" s="12">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="7"/>
+      <c r="B249" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H249" s="12">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+      <c r="B250" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H250" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+      <c r="B251" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H251" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+      <c r="B252" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H252" s="12">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+      <c r="B253" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H253" s="12">
+        <v>41.56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+      <c r="B254" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H254" s="12">
+        <v>49.76</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+      <c r="B255" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H255" s="12">
+        <v>69.19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
+      <c r="B256" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H256" s="12">
+        <v>77.34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+      <c r="B257" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H257" s="12">
+        <v>111.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="7"/>
+      <c r="B258" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H258" s="12">
+        <v>109.71</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
+      <c r="B259" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H259" s="12">
+        <v>163.66999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+      <c r="B260" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H260" s="12">
+        <v>248.42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
+      <c r="B261" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H261" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
+      <c r="B262" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H262" s="12">
+        <v>340.22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
+      <c r="B263" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H263" s="12">
+        <v>340.22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
+      <c r="B264" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H264" s="12">
+        <v>506.38</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+      <c r="B265" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H265" s="12">
+        <v>717.12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
+      <c r="B266" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H266" s="12">
+        <v>932.77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+      <c r="B267" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H267" s="12">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+      <c r="B268" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H268" s="12">
+        <v>1747.98</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+      <c r="B269" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H269" s="12">
+        <v>2126.69</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
+      <c r="B270" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H270" s="12">
+        <v>2757.31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+      <c r="B271" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H271" s="12">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+      <c r="B272" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H272" s="12">
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+      <c r="B273" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H273" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+      <c r="B274" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H274" s="12">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+      <c r="B275" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H275" s="12">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+      <c r="B276" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H276" s="12">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+      <c r="B277" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H277" s="12">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+      <c r="B278" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H278" s="12">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+      <c r="B279" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H279" s="12">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+      <c r="B280" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H280" s="12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+      <c r="B281" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H281" s="12">
+        <v>318.34800000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+      <c r="B282" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H282" s="12">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+      <c r="B283" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="11"/>
-      <c r="C139" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="11"/>
-      <c r="C140" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-      <c r="B150" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="B151" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
-      <c r="B152" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H152" s="13">
-        <v>366.68</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="B153" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H153" s="13">
-        <v>343.11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H154" s="13">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H155" s="13">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H156" s="13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H157" s="13">
-        <v>82.65</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H158" s="13">
-        <v>84.39</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-      <c r="B159" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H159" s="13">
-        <v>94.83</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
-      <c r="B160" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H160" s="13">
-        <v>102.66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H161" s="13">
-        <v>108.96</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H162" s="13">
-        <v>216.13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H163" s="13">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-      <c r="B164" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H164" s="13">
-        <v>1476.39</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-      <c r="B165" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H165" s="13">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="B166" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H166" s="13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
-      <c r="B167" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H167" s="13">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H168" s="13">
-        <v>82.65</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H169" s="13">
-        <v>90.48</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
-      <c r="B170" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H170" s="13">
-        <v>140.07</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H171" s="13">
-        <v>161.82</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H172" s="13">
-        <v>184.44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-      <c r="B173" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H173" s="13">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H174" s="13">
-        <v>985.71</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
-      <c r="B175" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H175" s="13">
-        <v>1297.23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
-      <c r="B176" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H176" s="13">
-        <v>1758.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-      <c r="B177" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H177" s="13">
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-      <c r="B178" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H178" s="13">
-        <v>23.49</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-      <c r="B179" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H179" s="13">
-        <v>29.58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-      <c r="B180" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H180" s="13">
-        <v>37.409999999999997</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-      <c r="B181" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H181" s="13">
-        <v>39.15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="B182" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H182" s="13">
+      <c r="C283" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H283" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+      <c r="B284" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H284" s="12">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
+      <c r="B285" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H285" s="12">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
+      <c r="B286" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H286" s="12">
         <v>49.59</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
-      <c r="B183" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H183" s="13">
-        <v>47.85</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
-      <c r="B184" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H184" s="13">
-        <v>58.29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
-      <c r="B185" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H185" s="13">
-        <v>80.040000000000006</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
-      <c r="B186" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H186" s="13">
-        <v>80.040000000000006</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="B187" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H187" s="13">
-        <v>154.86000000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
-      <c r="B188" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H188" s="13">
-        <v>169.65</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-      <c r="B189" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H189" s="13">
-        <v>649.89</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
-      <c r="B190" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H190" s="13">
-        <v>649.89</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
-      <c r="B191" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H191" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
-      <c r="B192" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H192" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
-      <c r="B193" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H193" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
-      <c r="B194" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H194" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
-      <c r="B195" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H195" s="13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="8"/>
-      <c r="B196" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H196" s="13">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="8"/>
-      <c r="B197" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H197" s="13">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
-      <c r="B198" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H198" s="13">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
-      <c r="B199" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H199" s="13">
-        <v>30.45</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-      <c r="B200" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H200" s="13">
-        <v>35.67</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-      <c r="B201" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H201" s="13">
-        <v>55.68</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
-      <c r="B202" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H202" s="13">
-        <v>55.68</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="8"/>
-      <c r="B203" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H203" s="13">
-        <v>75.69</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
-      <c r="B204" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H204" s="13">
-        <v>74.819999999999993</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
-      <c r="B205" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H205" s="13">
-        <v>87.87</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="8"/>
-      <c r="B206" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H206" s="13">
-        <v>87.87</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
-      <c r="B207" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
-      <c r="B208" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
-      <c r="B213" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H213" s="13">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="B214" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H214" s="13">
-        <v>25.35</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="8"/>
-      <c r="B215" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H215" s="13">
-        <v>28.49</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="8"/>
-      <c r="B216" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H216" s="13">
-        <v>42.45</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="8"/>
-      <c r="B217" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H217" s="13">
-        <v>56.92</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
-      <c r="B218" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H218" s="13">
-        <v>221.04</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
-      <c r="B219" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H219" s="13">
-        <v>186.82</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="8"/>
-      <c r="B220" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H220" s="13">
-        <v>98.75</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="8"/>
-      <c r="B221" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H221" s="13">
-        <v>432.94</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
-      <c r="B222" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H222" s="13">
-        <v>493.81</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
-      <c r="B223" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H223" s="13">
-        <v>998.09</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
-      <c r="B224" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H224" s="13">
-        <v>100.75</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
-      <c r="B225" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H225" s="13">
-        <v>175.63</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="8"/>
-      <c r="B226" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H226" s="13">
-        <v>267.56</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="8"/>
-      <c r="B227" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H227" s="13">
-        <v>349.18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="8"/>
-      <c r="B228" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H228" s="13">
-        <v>464.92</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
-      <c r="B229" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H229" s="13">
-        <v>661.52</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="8"/>
-      <c r="B230" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="8"/>
-      <c r="B231" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="8"/>
-      <c r="B232" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="8"/>
-      <c r="B233" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
-      <c r="B234" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C234" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="8"/>
-      <c r="B235" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
-      <c r="B236" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
-      <c r="B237" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
-      <c r="B238" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="8"/>
-      <c r="B239" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
-      <c r="B240" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="8"/>
-      <c r="B241" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="8"/>
-      <c r="B242" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="8"/>
-      <c r="B243" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
-      <c r="B244" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="8"/>
-      <c r="B245" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="8"/>
-      <c r="B246" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H246" s="13">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="8"/>
-      <c r="B247" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H247" s="13">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="8"/>
-      <c r="B248" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H248" s="13">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="8"/>
-      <c r="B249" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H249" s="13">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="8"/>
-      <c r="B250" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H250" s="13">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="8"/>
-      <c r="B251" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H251" s="13">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="8"/>
-      <c r="B252" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H252" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
-      <c r="B253" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H253" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="8"/>
-      <c r="B254" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H254" s="13">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="8"/>
-      <c r="B255" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H255" s="13">
-        <v>41.56</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="8"/>
-      <c r="B256" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H256" s="13">
-        <v>49.76</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="8"/>
-      <c r="B257" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H257" s="13">
-        <v>69.19</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="8"/>
-      <c r="B258" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H258" s="13">
-        <v>77.34</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
-      <c r="B259" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H259" s="13">
-        <v>111.25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="8"/>
-      <c r="B260" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H260" s="13">
-        <v>109.71</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
-      <c r="B261" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H261" s="13">
-        <v>163.66999999999999</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
-      <c r="B262" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H262" s="13">
-        <v>248.42</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
-      <c r="B263" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H263" s="13">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
-      <c r="B264" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C264" s="9" t="s">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
+      <c r="B287" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D264" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H264" s="13">
-        <v>340.22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="8"/>
-      <c r="B265" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C265" s="9" t="s">
+      <c r="C287" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H287" s="12">
+        <v>54.81</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+      <c r="B288" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D265" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H265" s="13">
-        <v>340.22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="8"/>
-      <c r="B266" s="9" t="s">
+      <c r="C288" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H288" s="12">
+        <v>98.95</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="7"/>
+      <c r="B289" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C289" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H289" s="12">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="7"/>
+      <c r="B290" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H266" s="13">
-        <v>506.38</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
-      <c r="B267" s="9" t="s">
+      <c r="C290" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H290" s="12">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="7"/>
+      <c r="B291" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C291" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H291" s="12">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="7"/>
+      <c r="B292" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D267" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H267" s="13">
-        <v>717.12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
-      <c r="B268" s="9" t="s">
+      <c r="C292" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H292" s="12">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="7"/>
+      <c r="B293" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C268" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H268" s="13">
-        <v>932.77</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="8"/>
-      <c r="B269" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H269" s="13">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="8"/>
-      <c r="B270" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H270" s="13">
-        <v>1747.98</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="8"/>
-      <c r="B271" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C271" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H271" s="13">
-        <v>2126.69</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="8"/>
-      <c r="B272" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H272" s="13">
-        <v>2757.31</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="8"/>
-      <c r="B273" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C273" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H273" s="13">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
-      <c r="B274" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H274" s="13">
-        <v>91.07</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="8"/>
-      <c r="B275" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H275" s="13">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H276" s="13">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
-      <c r="B277" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C277" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H277" s="13">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="8"/>
-      <c r="B278" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C278" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H278" s="13">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
-      <c r="B279" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C279" s="9" t="s">
+      <c r="C293" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D279" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H279" s="13">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
-      <c r="B280" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H280" s="13">
-        <v>32.99</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H281" s="13">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H282" s="13">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
-      <c r="B283" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H283" s="13">
-        <v>318.34800000000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
-      <c r="B284" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H284" s="13">
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="8"/>
-      <c r="B285" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H285" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
-      <c r="B286" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H286" s="13">
-        <v>37.340000000000003</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="B287" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H287" s="13">
-        <v>43.16</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
-      <c r="B288" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H288" s="13">
-        <v>49.59</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="8"/>
-      <c r="B289" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H289" s="13">
-        <v>54.81</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
-      <c r="B290" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H290" s="13">
-        <v>98.95</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="8"/>
-      <c r="B291" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H291" s="13">
-        <v>122.4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="8"/>
-      <c r="B292" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C292" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H292" s="13">
-        <v>37.340000000000003</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
-      <c r="B293" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C293" s="10" t="s">
-        <v>533</v>
-      </c>
       <c r="D293" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H293" s="13">
-        <v>43.16</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="8"/>
-      <c r="B294" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H294" s="13">
-        <v>49.59</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="8"/>
-      <c r="B295" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H295" s="13">
+        <v>155</v>
+      </c>
+      <c r="H293" s="12">
         <v>54.81</v>
       </c>
     </row>

--- a/src/bd/BOM/bom.xlsx
+++ b/src/bd/BOM/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.zubkov\PycharmProjects\FinalProject\src\bd\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357B64B-EB63-4CDB-9F4C-382141026AD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC20C49-BCCC-45D1-A134-B2D2E5C54C5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="559">
   <si>
     <t>Блок</t>
   </si>
@@ -793,85 +793,43 @@
     <t xml:space="preserve">TU2.5-2-GY       </t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=24А</t>
-  </si>
-  <si>
     <t xml:space="preserve">TU2.5-2-BU     </t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=24А, синяя</t>
-  </si>
-  <si>
     <t>TU4-2-GY</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=32А</t>
-  </si>
-  <si>
     <t>TU4-2-BU</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=32А, синяя</t>
-  </si>
-  <si>
     <t>TU6-2-GY</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=41А</t>
-  </si>
-  <si>
     <t>TU6-2-BU</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=41А, синяя</t>
-  </si>
-  <si>
     <t>TU10-2-GY</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=57А</t>
-  </si>
-  <si>
     <t>TU10-2-BU</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=57А, синяя</t>
-  </si>
-  <si>
     <t>TU16-2-GY</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=76А</t>
-  </si>
-  <si>
     <t>TU16-2-BU</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=76А, синяя</t>
-  </si>
-  <si>
     <t>TU35-2-GY</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=125А</t>
-  </si>
-  <si>
     <t>TU35-2-BU</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=125А, синяя</t>
-  </si>
-  <si>
     <t>TU50-2-GY</t>
   </si>
   <si>
-    <t>Клемма проходная винтовая Iн=150А</t>
-  </si>
-  <si>
     <t>TU50-2-BU</t>
-  </si>
-  <si>
-    <t>Клемма проходная винтовая Iн=150А, синяя</t>
   </si>
   <si>
     <t>TUD2.5-2-GY</t>
@@ -2063,17 +2021,136 @@
   <si>
     <t>VZ-P32V_withcap</t>
   </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_2.5</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_4</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_6</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_10</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_16</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_35</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_50</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_70</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_GREEN_95</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_2.5</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_4</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_6</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_10</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_16</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_35</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_WHITE_50</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_2.5</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_4</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_6</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_10</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_16</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_35</t>
+  </si>
+  <si>
+    <t>SUPU_SCREW_BLUE_50</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=24А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=24А, синяя</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=32А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=32А, синяя</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=41А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=41А, синяя</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=57А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=57А, синяя</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=76А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=76А, синяя</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=125А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=125А, синяя</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=150А</t>
+  </si>
+  <si>
+    <t>Клемма проходная винтовая#Iн=150А, синяя</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2170,31 +2247,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2478,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2827,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -2768,7 +2847,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -2788,7 +2867,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -2808,7 +2887,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -2828,7 +2907,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -2848,7 +2927,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -2868,7 +2947,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -2888,7 +2967,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2908,7 +2987,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2928,7 +3007,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -2948,7 +3027,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -2968,7 +3047,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -2988,7 +3067,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -3008,7 +3087,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
@@ -3028,7 +3107,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -3048,7 +3127,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
@@ -3068,7 +3147,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -3088,7 +3167,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
@@ -3108,7 +3187,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B31" t="s">
         <v>70</v>
@@ -3128,7 +3207,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -3148,7 +3227,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -3168,7 +3247,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
@@ -3188,7 +3267,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
@@ -3208,7 +3287,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
@@ -3228,7 +3307,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -3248,7 +3327,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
@@ -3268,7 +3347,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
@@ -3288,7 +3367,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -3308,7 +3387,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -3328,7 +3407,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
@@ -3348,7 +3427,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
         <v>94</v>
@@ -3368,7 +3447,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -3388,7 +3467,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B45" t="s">
         <v>98</v>
@@ -3408,7 +3487,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
@@ -3428,7 +3507,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
@@ -3448,7 +3527,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B48" t="s">
         <v>104</v>
@@ -3468,7 +3547,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B49" t="s">
         <v>106</v>
@@ -3488,7 +3567,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B50" t="s">
         <v>108</v>
@@ -3508,7 +3587,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B51" t="s">
         <v>110</v>
@@ -3528,7 +3607,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B52" t="s">
         <v>112</v>
@@ -3548,7 +3627,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
@@ -3568,7 +3647,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B54" t="s">
         <v>116</v>
@@ -4605,7 +4684,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
@@ -4636,7 +4715,7 @@
         <v>186</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>3</v>
@@ -4647,7 +4726,7 @@
         <v>187</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>3</v>
@@ -4658,7 +4737,7 @@
         <v>188</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>3</v>
@@ -4669,7 +4748,7 @@
         <v>189</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>3</v>
@@ -4719,7 +4798,7 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="10"/>
       <c r="C133" s="9" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>148</v>
@@ -4728,7 +4807,7 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="10"/>
       <c r="C134" s="9" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>148</v>
@@ -4780,7 +4859,7 @@
         <v>194</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>155</v>
@@ -4792,7 +4871,7 @@
         <v>195</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>155</v>
@@ -4804,7 +4883,7 @@
         <v>196</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>155</v>
@@ -4930,7 +5009,7 @@
         <v>215</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>155</v>
@@ -4945,7 +5024,7 @@
         <v>216</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>155</v>
@@ -4960,7 +5039,7 @@
         <v>217</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>155</v>
@@ -4970,7 +5049,9 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
+      <c r="A155" s="16" t="s">
+        <v>522</v>
+      </c>
       <c r="B155" s="11" t="s">
         <v>218</v>
       </c>
@@ -4985,7 +5066,9 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
+      <c r="A156" s="16" t="s">
+        <v>523</v>
+      </c>
       <c r="B156" s="8" t="s">
         <v>220</v>
       </c>
@@ -5000,8 +5083,10 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-      <c r="B157" s="8" t="s">
+      <c r="A157" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B157" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -5015,7 +5100,9 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
+      <c r="A158" s="16" t="s">
+        <v>525</v>
+      </c>
       <c r="B158" s="8" t="s">
         <v>224</v>
       </c>
@@ -5030,7 +5117,9 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
+      <c r="A159" s="16" t="s">
+        <v>526</v>
+      </c>
       <c r="B159" s="8" t="s">
         <v>226</v>
       </c>
@@ -5045,7 +5134,9 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
+      <c r="A160" s="16" t="s">
+        <v>527</v>
+      </c>
       <c r="B160" s="8" t="s">
         <v>228</v>
       </c>
@@ -5060,7 +5151,9 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="A161" s="16" t="s">
+        <v>528</v>
+      </c>
       <c r="B161" s="8" t="s">
         <v>230</v>
       </c>
@@ -5075,7 +5168,9 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+      <c r="A162" s="16" t="s">
+        <v>529</v>
+      </c>
       <c r="B162" s="8" t="s">
         <v>232</v>
       </c>
@@ -5090,7 +5185,9 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+      <c r="A163" s="16" t="s">
+        <v>530</v>
+      </c>
       <c r="B163" s="8" t="s">
         <v>234</v>
       </c>
@@ -5110,7 +5207,7 @@
         <v>236</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>155</v>
@@ -5125,7 +5222,7 @@
         <v>237</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>155</v>
@@ -5270,12 +5367,14 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
+      <c r="A175" s="16" t="s">
+        <v>531</v>
+      </c>
       <c r="B175" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>257</v>
+      <c r="C175" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>155</v>
@@ -5285,12 +5384,14 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
+      <c r="A176" s="16" t="s">
+        <v>538</v>
+      </c>
       <c r="B176" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>546</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>155</v>
@@ -5300,12 +5401,14 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
+      <c r="A177" s="16" t="s">
+        <v>532</v>
+      </c>
       <c r="B177" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>155</v>
@@ -5315,12 +5418,14 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
+      <c r="A178" s="16" t="s">
+        <v>539</v>
+      </c>
       <c r="B178" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>548</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>155</v>
@@ -5330,12 +5435,14 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
+      <c r="A179" s="16" t="s">
+        <v>533</v>
+      </c>
       <c r="B179" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>549</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>155</v>
@@ -5345,12 +5452,14 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
+      <c r="A180" s="16" t="s">
+        <v>540</v>
+      </c>
       <c r="B180" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>550</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>155</v>
@@ -5360,12 +5469,14 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="A181" s="16" t="s">
+        <v>534</v>
+      </c>
       <c r="B181" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>269</v>
+        <v>262</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>551</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>155</v>
@@ -5375,12 +5486,14 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
+      <c r="A182" s="16" t="s">
+        <v>541</v>
+      </c>
       <c r="B182" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>552</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>155</v>
@@ -5390,12 +5503,14 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+      <c r="A183" s="16" t="s">
+        <v>535</v>
+      </c>
       <c r="B183" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>273</v>
+        <v>264</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>155</v>
@@ -5405,12 +5520,14 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+      <c r="A184" s="16" t="s">
+        <v>542</v>
+      </c>
       <c r="B184" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>554</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>155</v>
@@ -5420,12 +5537,14 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="A185" s="16" t="s">
+        <v>536</v>
+      </c>
       <c r="B185" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>555</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>155</v>
@@ -5435,12 +5554,14 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
+      <c r="A186" s="16" t="s">
+        <v>543</v>
+      </c>
       <c r="B186" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>556</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>155</v>
@@ -5450,12 +5571,14 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+      <c r="A187" s="16" t="s">
+        <v>537</v>
+      </c>
       <c r="B187" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>281</v>
+        <v>268</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>557</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>155</v>
@@ -5465,12 +5588,14 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+      <c r="A188" s="16" t="s">
+        <v>544</v>
+      </c>
       <c r="B188" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>558</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>155</v>
@@ -5482,10 +5607,10 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="8" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>155</v>
@@ -5497,10 +5622,10 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="8" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>155</v>
@@ -5512,10 +5637,10 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>155</v>
@@ -5527,10 +5652,10 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>155</v>
@@ -5542,10 +5667,10 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="8" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>155</v>
@@ -5557,10 +5682,10 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>155</v>
@@ -5572,10 +5697,10 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>155</v>
@@ -5587,10 +5712,10 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="8" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>155</v>
@@ -5602,10 +5727,10 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="8" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>155</v>
@@ -5617,10 +5742,10 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="8" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>155</v>
@@ -5632,10 +5757,10 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="8" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>155</v>
@@ -5647,10 +5772,10 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="8" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>155</v>
@@ -5662,10 +5787,10 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>155</v>
@@ -5677,10 +5802,10 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="8" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>155</v>
@@ -5692,10 +5817,10 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="8" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>155</v>
@@ -5707,10 +5832,10 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="8" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>155</v>
@@ -5722,10 +5847,10 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="8" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>155</v>
@@ -5734,10 +5859,10 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="8" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>155</v>
@@ -5746,10 +5871,10 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="8" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>155</v>
@@ -5758,10 +5883,10 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="8" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>155</v>
@@ -5770,10 +5895,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="8" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>155</v>
@@ -5782,10 +5907,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>155</v>
@@ -5794,10 +5919,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="8" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>155</v>
@@ -5809,10 +5934,10 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="8" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>155</v>
@@ -5824,10 +5949,10 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>155</v>
@@ -5839,10 +5964,10 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="8" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>155</v>
@@ -5854,10 +5979,10 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="8" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>155</v>
@@ -5869,10 +5994,10 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="8" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>155</v>
@@ -5884,10 +6009,10 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="8" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>155</v>
@@ -5899,10 +6024,10 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="8" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>155</v>
@@ -5914,10 +6039,10 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="8" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>155</v>
@@ -5929,10 +6054,10 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="8" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>155</v>
@@ -5944,10 +6069,10 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="8" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>155</v>
@@ -5959,10 +6084,10 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="8" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>155</v>
@@ -5974,10 +6099,10 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="8" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>155</v>
@@ -5989,10 +6114,10 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="8" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>155</v>
@@ -6004,10 +6129,10 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="8" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>155</v>
@@ -6019,10 +6144,10 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="8" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>155</v>
@@ -6034,10 +6159,10 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="8" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>155</v>
@@ -6049,10 +6174,10 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>155</v>
@@ -6061,10 +6186,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="8" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>155</v>
@@ -6073,10 +6198,10 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="8" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>155</v>
@@ -6085,10 +6210,10 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="8" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>155</v>
@@ -6097,10 +6222,10 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="8" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>155</v>
@@ -6109,10 +6234,10 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="8" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>155</v>
@@ -6121,10 +6246,10 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="8" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>155</v>
@@ -6133,10 +6258,10 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="8" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>155</v>
@@ -6145,10 +6270,10 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="8" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>155</v>
@@ -6157,10 +6282,10 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="8" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>155</v>
@@ -6169,10 +6294,10 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="8" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>155</v>
@@ -6181,10 +6306,10 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="8" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>155</v>
@@ -6193,10 +6318,10 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="8" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>155</v>
@@ -6205,10 +6330,10 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="8" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>155</v>
@@ -6217,10 +6342,10 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="8" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>155</v>
@@ -6229,10 +6354,10 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="8" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>155</v>
@@ -6241,10 +6366,10 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="8" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>155</v>
@@ -6256,10 +6381,10 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="8" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>155</v>
@@ -6271,10 +6396,10 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="8" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>155</v>
@@ -6286,10 +6411,10 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
       <c r="B247" s="8" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>155</v>
@@ -6301,10 +6426,10 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="8" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>155</v>
@@ -6316,10 +6441,10 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="8" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>155</v>
@@ -6331,10 +6456,10 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="8" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>155</v>
@@ -6346,10 +6471,10 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="8" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>155</v>
@@ -6361,10 +6486,10 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="8" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>155</v>
@@ -6376,10 +6501,10 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="8" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>155</v>
@@ -6391,10 +6516,10 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="8" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>155</v>
@@ -6406,10 +6531,10 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="8" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>155</v>
@@ -6421,10 +6546,10 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="8" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>155</v>
@@ -6436,10 +6561,10 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>155</v>
@@ -6451,10 +6576,10 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
       <c r="B258" s="8" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>155</v>
@@ -6466,10 +6591,10 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="8" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>155</v>
@@ -6481,10 +6606,10 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>155</v>
@@ -6496,10 +6621,10 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="8" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>155</v>
@@ -6511,10 +6636,10 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>155</v>
@@ -6526,10 +6651,10 @@
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>155</v>
@@ -6541,10 +6666,10 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>155</v>
@@ -6556,10 +6681,10 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>155</v>
@@ -6571,10 +6696,10 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
       <c r="B266" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>155</v>
@@ -6586,10 +6711,10 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="8" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>155</v>
@@ -6601,10 +6726,10 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="8" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>155</v>
@@ -6616,10 +6741,10 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="8" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>155</v>
@@ -6631,10 +6756,10 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="8" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>155</v>
@@ -6646,10 +6771,10 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="8" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>155</v>
@@ -6661,10 +6786,10 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="8" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>155</v>
@@ -6676,10 +6801,10 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="8" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>155</v>
@@ -6691,10 +6816,10 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="8" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>155</v>
@@ -6706,10 +6831,10 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="8" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>155</v>
@@ -6721,10 +6846,10 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="8" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>155</v>
@@ -6736,10 +6861,10 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="8" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>155</v>
@@ -6751,10 +6876,10 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="8" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>155</v>
@@ -6766,10 +6891,10 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="8" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>155</v>
@@ -6781,10 +6906,10 @@
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="8" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>155</v>
@@ -6796,10 +6921,10 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="8" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>155</v>
@@ -6811,10 +6936,10 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="8" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>155</v>
@@ -6829,7 +6954,7 @@
         <v>192</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>155</v>
@@ -6841,10 +6966,10 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="8" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>155</v>
@@ -6856,10 +6981,10 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
       <c r="B285" s="8" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>155</v>
@@ -6871,10 +6996,10 @@
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="8" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>155</v>
@@ -6886,10 +7011,10 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
       <c r="B287" s="8" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>155</v>
@@ -6901,10 +7026,10 @@
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="8" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>155</v>
@@ -6916,10 +7041,10 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="8" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>155</v>
@@ -6931,10 +7056,10 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="8" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>155</v>
@@ -6946,10 +7071,10 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="8" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>155</v>
@@ -6961,10 +7086,10 @@
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="8" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>155</v>
@@ -6976,10 +7101,10 @@
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="8" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>155</v>
